--- a/data/processed/employee_schedules.xlsx
+++ b/data/processed/employee_schedules.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samarpatel/Desktop/samar/Dunkin/par-delta-dashboard/data/processed/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78FF328-C743-2F4A-AE20-B6A2BDB93DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="35840" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -163,11 +169,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,13 +237,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -275,7 +289,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -309,6 +323,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -343,9 +358,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -518,14 +534,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -553,7 +577,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -567,7 +591,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -581,7 +605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -595,7 +619,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -609,7 +633,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -623,7 +647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -637,7 +661,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -651,7 +675,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -665,7 +689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -679,7 +703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -693,7 +717,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -707,7 +731,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -721,7 +745,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -735,7 +759,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -749,7 +773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -763,7 +787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -777,7 +801,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -791,7 +815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -805,7 +829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -819,7 +843,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -833,7 +857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -847,7 +871,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -861,7 +885,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -875,7 +899,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -889,7 +913,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -903,7 +927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -917,7 +941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -931,7 +955,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -945,7 +969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -959,7 +983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -973,7 +997,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -987,7 +1011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1001,7 +1025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1015,7 +1039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1029,7 +1053,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1043,7 +1067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1057,7 +1081,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1071,7 +1095,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -1085,7 +1109,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -1099,7 +1123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -1113,7 +1137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1127,7 +1151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1141,7 +1165,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1155,7 +1179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1169,7 +1193,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1183,7 +1207,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -1197,7 +1221,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -1211,7 +1235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -1225,7 +1249,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -1239,7 +1263,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -1253,7 +1277,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1267,7 +1291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -1281,7 +1305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -1295,7 +1319,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -1309,7 +1333,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -1323,7 +1347,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -1337,7 +1361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -1351,7 +1375,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -1365,7 +1389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1379,7 +1403,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -1393,7 +1417,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1407,7 +1431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1421,7 +1445,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1435,7 +1459,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -1449,7 +1473,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -1463,7 +1487,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -1477,7 +1501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -1491,7 +1515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -1505,7 +1529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -1519,7 +1543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -1533,7 +1557,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -1547,7 +1571,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -1561,7 +1585,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -1575,7 +1599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -1589,7 +1613,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -1603,7 +1627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -1617,7 +1641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>23</v>
       </c>
@@ -1631,7 +1655,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -1645,7 +1669,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -1659,7 +1683,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -1673,7 +1697,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>29</v>
       </c>
@@ -1687,7 +1711,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -1701,7 +1725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>25</v>
       </c>
@@ -1715,7 +1739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -1729,7 +1753,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -1743,7 +1767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>28</v>
       </c>
@@ -1757,7 +1781,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -1771,7 +1795,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -1785,7 +1809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>16</v>
       </c>
@@ -1799,7 +1823,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>27</v>
       </c>
@@ -1813,7 +1837,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -1827,7 +1851,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -1841,7 +1865,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -1855,7 +1879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>23</v>
       </c>
@@ -1869,7 +1893,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -1883,7 +1907,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>24</v>
       </c>
@@ -1897,7 +1921,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -1911,7 +1935,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -1925,7 +1949,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -1939,7 +1963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -1953,7 +1977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>25</v>
       </c>
@@ -1967,7 +1991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -1981,7 +2005,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>28</v>
       </c>
@@ -1995,7 +2019,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -2009,7 +2033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>26</v>
       </c>
@@ -2023,7 +2047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -2037,7 +2061,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -2051,7 +2075,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -2065,7 +2089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -2079,7 +2103,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -2093,7 +2117,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -2107,7 +2131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -2121,7 +2145,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>24</v>
       </c>
@@ -2135,7 +2159,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -2149,7 +2173,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -2163,7 +2187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -2177,7 +2201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -2191,7 +2215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>29</v>
       </c>
@@ -2205,7 +2229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -2219,7 +2243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -2233,7 +2257,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>28</v>
       </c>
@@ -2247,7 +2271,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -2261,7 +2285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -2275,7 +2299,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -2289,7 +2313,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -2303,7 +2327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>18</v>
       </c>
@@ -2317,7 +2341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -2331,7 +2355,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -2345,7 +2369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>21</v>
       </c>
